--- a/SO SACH - LA/SO SACH/2014/141 - 341 - 14.xlsx
+++ b/SO SACH - LA/SO SACH/2014/141 - 341 - 14.xlsx
@@ -2388,7 +2388,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
@@ -3103,7 +3103,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="21" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="22" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="26" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="21" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="22" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="26" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="21" borderId="30" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3111,33 +3132,36 @@
     <xf numFmtId="0" fontId="40" fillId="21" borderId="19" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="21" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="22" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="26" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="22" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="21" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="22" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="22" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="26" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3150,21 +3174,15 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="22" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="25" borderId="0" xfId="54" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3177,9 +3195,6 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3192,57 +3207,57 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="21" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="26" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="26" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="21" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="26" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="26" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3252,20 +3267,14 @@
     <xf numFmtId="0" fontId="44" fillId="25" borderId="0" xfId="58" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="22" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="41" fillId="21" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="79">
@@ -3669,11 +3678,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B8"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -3693,36 +3702,38 @@
     <col min="13" max="13" width="10.85546875" style="149" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="149" customWidth="1"/>
     <col min="15" max="15" width="13" style="168" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="149"/>
+    <col min="16" max="16" width="11.85546875" style="168" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="149" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="149"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.75" customHeight="1">
-      <c r="A1" s="249" t="s">
+    <row r="1" spans="1:17" ht="21.75" customHeight="1">
+      <c r="A1" s="259" t="s">
         <v>387</v>
       </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="249"/>
-      <c r="O1" s="249"/>
-    </row>
-    <row r="2" spans="1:15" s="152" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="252" t="s">
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="259"/>
+    </row>
+    <row r="2" spans="1:17" s="152" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A2" s="251" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="255" t="s">
+      <c r="B2" s="254" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="255" t="s">
+      <c r="C2" s="254" t="s">
         <v>145</v>
       </c>
       <c r="D2" s="150" t="s">
@@ -3743,40 +3754,42 @@
       <c r="M2" s="150"/>
       <c r="N2" s="150"/>
       <c r="O2" s="151"/>
-    </row>
-    <row r="3" spans="1:15" s="152" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="253"/>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="250" t="s">
+      <c r="P2" s="304"/>
+    </row>
+    <row r="3" spans="1:17" s="152" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A3" s="252"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="257" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="251"/>
-      <c r="F3" s="250" t="s">
+      <c r="E3" s="258"/>
+      <c r="F3" s="257" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="251"/>
-      <c r="H3" s="250" t="s">
+      <c r="G3" s="258"/>
+      <c r="H3" s="257" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="251"/>
-      <c r="J3" s="250" t="s">
+      <c r="I3" s="258"/>
+      <c r="J3" s="257" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="251"/>
-      <c r="L3" s="250" t="s">
+      <c r="K3" s="258"/>
+      <c r="L3" s="257" t="s">
         <v>102</v>
       </c>
-      <c r="M3" s="251"/>
-      <c r="N3" s="250" t="s">
+      <c r="M3" s="258"/>
+      <c r="N3" s="257" t="s">
         <v>103</v>
       </c>
-      <c r="O3" s="251"/>
-    </row>
-    <row r="4" spans="1:15" s="152" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="254"/>
-      <c r="B4" s="257"/>
-      <c r="C4" s="257"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="304"/>
+    </row>
+    <row r="4" spans="1:17" s="152" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="253"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
       <c r="D4" s="153" t="s">
         <v>104</v>
       </c>
@@ -3813,8 +3826,11 @@
       <c r="O4" s="154" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P4" s="304">
+        <v>21230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="155">
         <v>1</v>
       </c>
@@ -3868,8 +3884,16 @@
         <f t="shared" ref="O5:O8" si="7">ROUND(MAX(G5+K5-E5-I5,0),2)</f>
         <v>401936849</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P5" s="304">
+        <f>ROUND(N5*$P$4,0)</f>
+        <v>592868980</v>
+      </c>
+      <c r="Q5" s="306">
+        <f>P5-O5</f>
+        <v>190932131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="155">
         <v>2</v>
       </c>
@@ -3923,8 +3947,16 @@
         <f t="shared" si="7"/>
         <v>1369206677</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P6" s="304">
+        <f t="shared" ref="P6:P8" si="8">ROUND(N6*$P$4,0)</f>
+        <v>1406071180</v>
+      </c>
+      <c r="Q6" s="306">
+        <f t="shared" ref="Q6:Q8" si="9">P6-O6</f>
+        <v>36864503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="155">
         <v>3</v>
       </c>
@@ -3978,8 +4010,16 @@
         <f t="shared" si="7"/>
         <v>850672924</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P7" s="304">
+        <f t="shared" si="8"/>
+        <v>874123171</v>
+      </c>
+      <c r="Q7" s="306">
+        <f t="shared" si="9"/>
+        <v>23450247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="155">
         <v>4</v>
       </c>
@@ -4033,8 +4073,16 @@
         <f t="shared" si="7"/>
         <v>1190366038</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P8" s="304">
+        <f t="shared" si="8"/>
+        <v>1223684037</v>
+      </c>
+      <c r="Q8" s="306">
+        <f t="shared" si="9"/>
+        <v>33317999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="155"/>
       <c r="B9" s="162"/>
       <c r="C9" s="219"/>
@@ -4050,99 +4098,101 @@
       <c r="M9" s="160"/>
       <c r="N9" s="159"/>
       <c r="O9" s="160"/>
-    </row>
-    <row r="10" spans="1:15" s="167" customFormat="1" ht="18" customHeight="1">
+      <c r="P9" s="304"/>
+    </row>
+    <row r="10" spans="1:17" s="167" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="163"/>
       <c r="B10" s="164" t="s">
         <v>121</v>
       </c>
       <c r="C10" s="164"/>
       <c r="D10" s="165">
-        <f>SUM(D5:D9)</f>
+        <f t="shared" ref="D10:O10" si="10">SUM(D5:D9)</f>
         <v>0</v>
       </c>
       <c r="E10" s="166">
-        <f>SUM(E5:E9)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F10" s="165">
-        <f>SUM(F5:F9)</f>
+        <f t="shared" si="10"/>
         <v>285513.73</v>
       </c>
       <c r="G10" s="166">
-        <f>SUM(G5:G9)</f>
+        <f t="shared" si="10"/>
         <v>5776891608</v>
       </c>
       <c r="H10" s="165">
-        <f>SUM(H5:H9)</f>
+        <f t="shared" si="10"/>
         <v>92544</v>
       </c>
       <c r="I10" s="166">
-        <f>SUM(I5:I9)</f>
+        <f t="shared" si="10"/>
         <v>1964709120</v>
       </c>
       <c r="J10" s="165">
-        <f>SUM(J5:J9)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K10" s="166">
-        <f>SUM(K5:K9)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L10" s="165">
-        <f>SUM(L5:L9)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M10" s="166">
-        <f>SUM(M5:M9)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N10" s="165">
-        <f>SUM(N5:N9)</f>
+        <f t="shared" si="10"/>
         <v>192969.73</v>
       </c>
       <c r="O10" s="166">
-        <f>SUM(O5:O9)</f>
+        <f t="shared" si="10"/>
         <v>3812182488</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P10" s="305"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="G12" s="168"/>
       <c r="K12" s="168"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:17">
       <c r="G14" s="243"/>
       <c r="H14" s="243"/>
       <c r="I14" s="243"/>
       <c r="J14" s="243"/>
       <c r="K14" s="243"/>
     </row>
-    <row r="16" spans="1:15" ht="21.75" customHeight="1">
-      <c r="B16" s="299"/>
-      <c r="C16" s="299"/>
-      <c r="D16" s="299"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="299"/>
-      <c r="G16" s="299"/>
+    <row r="16" spans="1:17" ht="21.75" customHeight="1">
+      <c r="B16" s="249"/>
+      <c r="C16" s="249"/>
+      <c r="D16" s="249"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
       <c r="H16" s="244" t="s">
         <v>388</v>
       </c>
-      <c r="I16" s="299"/>
-      <c r="J16" s="299"/>
-      <c r="K16" s="299"/>
-      <c r="L16" s="299"/>
-      <c r="M16" s="299"/>
-      <c r="N16" s="299"/>
-      <c r="O16" s="299"/>
-    </row>
-    <row r="17" spans="1:15" s="152" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="252" t="s">
+      <c r="I16" s="249"/>
+      <c r="J16" s="249"/>
+      <c r="K16" s="249"/>
+      <c r="L16" s="249"/>
+      <c r="M16" s="249"/>
+      <c r="N16" s="249"/>
+      <c r="O16" s="249"/>
+    </row>
+    <row r="17" spans="1:16" s="152" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A17" s="251" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="255" t="s">
+      <c r="B17" s="254" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="255" t="s">
+      <c r="C17" s="254" t="s">
         <v>145</v>
       </c>
       <c r="D17" s="150" t="s">
@@ -4163,40 +4213,42 @@
       <c r="M17" s="150"/>
       <c r="N17" s="150"/>
       <c r="O17" s="151"/>
-    </row>
-    <row r="18" spans="1:15" s="152" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="253"/>
-      <c r="B18" s="256"/>
-      <c r="C18" s="256"/>
-      <c r="D18" s="250" t="s">
+      <c r="P17" s="304"/>
+    </row>
+    <row r="18" spans="1:16" s="152" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A18" s="252"/>
+      <c r="B18" s="255"/>
+      <c r="C18" s="255"/>
+      <c r="D18" s="257" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="251"/>
-      <c r="F18" s="250" t="s">
+      <c r="E18" s="258"/>
+      <c r="F18" s="257" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="251"/>
-      <c r="H18" s="250" t="s">
+      <c r="G18" s="258"/>
+      <c r="H18" s="257" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="251"/>
-      <c r="J18" s="250" t="s">
+      <c r="I18" s="258"/>
+      <c r="J18" s="257" t="s">
         <v>103</v>
       </c>
-      <c r="K18" s="251"/>
-      <c r="L18" s="250" t="s">
+      <c r="K18" s="258"/>
+      <c r="L18" s="257" t="s">
         <v>102</v>
       </c>
-      <c r="M18" s="251"/>
-      <c r="N18" s="250" t="s">
+      <c r="M18" s="258"/>
+      <c r="N18" s="257" t="s">
         <v>103</v>
       </c>
-      <c r="O18" s="251"/>
-    </row>
-    <row r="19" spans="1:15" s="152" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="254"/>
-      <c r="B19" s="257"/>
-      <c r="C19" s="257"/>
+      <c r="O18" s="258"/>
+      <c r="P18" s="304"/>
+    </row>
+    <row r="19" spans="1:16" s="152" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="253"/>
+      <c r="B19" s="256"/>
+      <c r="C19" s="256"/>
       <c r="D19" s="153" t="s">
         <v>104</v>
       </c>
@@ -4233,8 +4285,9 @@
       <c r="O19" s="154" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P19" s="304"/>
+    </row>
+    <row r="20" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="155">
         <v>1</v>
       </c>
@@ -4257,39 +4310,40 @@
         <v>1965255000</v>
       </c>
       <c r="H20" s="157">
-        <f t="shared" ref="H20:H48" si="8">SUMIF(KUTH,$B20,_TH1)</f>
+        <f t="shared" ref="H20:H48" si="11">SUMIF(KUTH,$B20,_TH1)</f>
         <v>92500</v>
       </c>
       <c r="I20" s="158">
-        <f t="shared" ref="I20:I48" si="9">SUMIF(KUTH,$B20,_TH2)</f>
+        <f t="shared" ref="I20:I48" si="12">SUMIF(KUTH,$B20,_TH2)</f>
         <v>1965255000</v>
       </c>
       <c r="J20" s="157">
-        <f t="shared" ref="J20:J48" si="10">SUMIF(KUTH,$B20,_TH3)</f>
+        <f t="shared" ref="J20:J48" si="13">SUMIF(KUTH,$B20,_TH3)</f>
         <v>0</v>
       </c>
       <c r="K20" s="158">
-        <f t="shared" ref="K20:K48" si="11">SUMIF(KUTH,$B20,_TH4)</f>
+        <f t="shared" ref="K20:K48" si="14">SUMIF(KUTH,$B20,_TH4)</f>
         <v>0</v>
       </c>
       <c r="L20" s="159">
-        <f t="shared" ref="L20:L23" si="12">ROUND(MAX(D20+H20-F20-J20,0),2)</f>
+        <f t="shared" ref="L20:L23" si="15">ROUND(MAX(D20+H20-F20-J20,0),2)</f>
         <v>0</v>
       </c>
       <c r="M20" s="160">
-        <f t="shared" ref="M20:M23" si="13">ROUND(MAX(E20+I20-G20-K20,0),2)</f>
+        <f t="shared" ref="M20:M23" si="16">ROUND(MAX(E20+I20-G20-K20,0),2)</f>
         <v>0</v>
       </c>
       <c r="N20" s="159">
-        <f t="shared" ref="N20:N23" si="14">ROUND(MAX(F20+J20-D20-H20,0),2)</f>
+        <f t="shared" ref="N20:N23" si="17">ROUND(MAX(F20+J20-D20-H20,0),2)</f>
         <v>0</v>
       </c>
       <c r="O20" s="160">
-        <f t="shared" ref="O20:O23" si="15">ROUND(MAX(G20+K20-E20-I20,0),2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+        <f t="shared" ref="O20:O23" si="18">ROUND(MAX(G20+K20-E20-I20,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="304"/>
+    </row>
+    <row r="21" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="155">
         <v>2</v>
       </c>
@@ -4312,39 +4366,40 @@
         <v>2015900000</v>
       </c>
       <c r="H21" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>95000</v>
       </c>
       <c r="I21" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2015900000</v>
       </c>
       <c r="J21" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K21" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L21" s="159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M21" s="160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N21" s="159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O21" s="160">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="304"/>
+    </row>
+    <row r="22" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="155">
         <v>3</v>
       </c>
@@ -4367,39 +4422,40 @@
         <v>2066330000</v>
       </c>
       <c r="H22" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>98000</v>
       </c>
       <c r="I22" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2068290000</v>
       </c>
       <c r="J22" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K22" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1960000</v>
       </c>
       <c r="L22" s="159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M22" s="160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N22" s="159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O22" s="160">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="304"/>
+    </row>
+    <row r="23" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="155">
         <v>4</v>
       </c>
@@ -4422,39 +4478,40 @@
         <v>2017075500</v>
       </c>
       <c r="H23" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>95370</v>
       </c>
       <c r="I23" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2017075500</v>
       </c>
       <c r="J23" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K23" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L23" s="159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M23" s="160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N23" s="159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O23" s="160">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="304"/>
+    </row>
+    <row r="24" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="155">
         <v>5</v>
       </c>
@@ -4477,39 +4534,40 @@
         <v>1909550000</v>
       </c>
       <c r="H24" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90500</v>
       </c>
       <c r="I24" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1909550000</v>
       </c>
       <c r="J24" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K24" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L24" s="159">
-        <f t="shared" ref="L24:L44" si="16">ROUND(MAX(D24+H24-F24-J24,0),2)</f>
+        <f t="shared" ref="L24:L43" si="19">ROUND(MAX(D24+H24-F24-J24,0),2)</f>
         <v>0</v>
       </c>
       <c r="M24" s="160">
-        <f t="shared" ref="M24:M44" si="17">ROUND(MAX(E24+I24-G24-K24,0),2)</f>
+        <f t="shared" ref="M24:M43" si="20">ROUND(MAX(E24+I24-G24-K24,0),2)</f>
         <v>0</v>
       </c>
       <c r="N24" s="159">
-        <f t="shared" ref="N24:N44" si="18">ROUND(MAX(F24+J24-D24-H24,0),2)</f>
+        <f t="shared" ref="N24:N43" si="21">ROUND(MAX(F24+J24-D24-H24,0),2)</f>
         <v>0</v>
       </c>
       <c r="O24" s="160">
-        <f t="shared" ref="O24:O44" si="19">ROUND(MAX(G24+K24-E24-I24,0),2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+        <f t="shared" ref="O24:O43" si="22">ROUND(MAX(G24+K24-E24-I24,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="304"/>
+    </row>
+    <row r="25" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="155">
         <v>6</v>
       </c>
@@ -4524,39 +4582,40 @@
       <c r="F25" s="157"/>
       <c r="G25" s="158"/>
       <c r="H25" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>92500</v>
       </c>
       <c r="I25" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1971175000</v>
       </c>
       <c r="J25" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>92500</v>
       </c>
       <c r="K25" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1971175000</v>
       </c>
       <c r="L25" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M25" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N25" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O25" s="160">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="304"/>
+    </row>
+    <row r="26" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="155">
         <v>7</v>
       </c>
@@ -4571,39 +4630,40 @@
       <c r="F26" s="157"/>
       <c r="G26" s="158"/>
       <c r="H26" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>95000</v>
       </c>
       <c r="I26" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2027300000</v>
       </c>
       <c r="J26" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>95000</v>
       </c>
       <c r="K26" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2027300000</v>
       </c>
       <c r="L26" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M26" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N26" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O26" s="160">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="304"/>
+    </row>
+    <row r="27" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="155">
         <v>8</v>
       </c>
@@ -4618,39 +4678,40 @@
       <c r="F27" s="157"/>
       <c r="G27" s="158"/>
       <c r="H27" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>98000</v>
       </c>
       <c r="I27" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2079658000</v>
       </c>
       <c r="J27" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>98000</v>
       </c>
       <c r="K27" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2079658000</v>
       </c>
       <c r="L27" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M27" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N27" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O27" s="160">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="304"/>
+    </row>
+    <row r="28" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="155">
         <v>9</v>
       </c>
@@ -4665,39 +4726,40 @@
       <c r="F28" s="157"/>
       <c r="G28" s="158"/>
       <c r="H28" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>95370</v>
       </c>
       <c r="I28" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2020937700</v>
       </c>
       <c r="J28" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>95370</v>
       </c>
       <c r="K28" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2020937700</v>
       </c>
       <c r="L28" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M28" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N28" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O28" s="160">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="304"/>
+    </row>
+    <row r="29" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="155">
         <v>10</v>
       </c>
@@ -4712,39 +4774,40 @@
       <c r="F29" s="157"/>
       <c r="G29" s="158"/>
       <c r="H29" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90500</v>
       </c>
       <c r="I29" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1919505000</v>
       </c>
       <c r="J29" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>90500</v>
       </c>
       <c r="K29" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1919505000</v>
       </c>
       <c r="L29" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M29" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N29" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O29" s="160">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="304"/>
+    </row>
+    <row r="30" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="155">
         <v>11</v>
       </c>
@@ -4759,39 +4822,40 @@
       <c r="F30" s="157"/>
       <c r="G30" s="158"/>
       <c r="H30" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90300</v>
       </c>
       <c r="I30" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1932420000</v>
       </c>
       <c r="J30" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>90300</v>
       </c>
       <c r="K30" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1932420000</v>
       </c>
       <c r="L30" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M30" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N30" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O30" s="160">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="304"/>
+    </row>
+    <row r="31" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="155">
         <v>12</v>
       </c>
@@ -4806,39 +4870,40 @@
       <c r="F31" s="157"/>
       <c r="G31" s="158"/>
       <c r="H31" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>43500</v>
       </c>
       <c r="I31" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>930030000</v>
       </c>
       <c r="J31" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>95000</v>
       </c>
       <c r="K31" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2024925000</v>
       </c>
       <c r="L31" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M31" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N31" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>51500</v>
       </c>
       <c r="O31" s="160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1094895000</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P31" s="304"/>
+    </row>
+    <row r="32" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="155">
         <v>13</v>
       </c>
@@ -4853,39 +4918,40 @@
       <c r="F32" s="157"/>
       <c r="G32" s="158"/>
       <c r="H32" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I32" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J32" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>60000</v>
       </c>
       <c r="K32" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1273500000</v>
       </c>
       <c r="L32" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M32" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N32" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>60000</v>
       </c>
       <c r="O32" s="160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1273500000</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P32" s="304"/>
+    </row>
+    <row r="33" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="155">
         <v>14</v>
       </c>
@@ -4900,39 +4966,40 @@
       <c r="F33" s="157"/>
       <c r="G33" s="158"/>
       <c r="H33" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I33" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J33" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>38000</v>
       </c>
       <c r="K33" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>806550000</v>
       </c>
       <c r="L33" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M33" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N33" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>38000</v>
       </c>
       <c r="O33" s="160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>806550000</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P33" s="304"/>
+    </row>
+    <row r="34" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="155">
         <v>15</v>
       </c>
@@ -4947,39 +5014,40 @@
       <c r="F34" s="157"/>
       <c r="G34" s="158"/>
       <c r="H34" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I34" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J34" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>46500</v>
       </c>
       <c r="K34" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>984405000</v>
       </c>
       <c r="L34" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M34" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N34" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>46500</v>
       </c>
       <c r="O34" s="160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>984405000</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P34" s="304"/>
+    </row>
+    <row r="35" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="155">
         <v>16</v>
       </c>
@@ -4994,39 +5062,40 @@
       <c r="F35" s="157"/>
       <c r="G35" s="158"/>
       <c r="H35" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I35" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J35" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>50870</v>
       </c>
       <c r="K35" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1078952700</v>
       </c>
       <c r="L35" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M35" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N35" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>50870</v>
       </c>
       <c r="O35" s="160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1078952700</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P35" s="304"/>
+    </row>
+    <row r="36" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="155">
         <v>17</v>
       </c>
@@ -5041,39 +5110,40 @@
       <c r="F36" s="157"/>
       <c r="G36" s="158"/>
       <c r="H36" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I36" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J36" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>90000</v>
       </c>
       <c r="K36" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1908900000</v>
       </c>
       <c r="L36" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M36" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N36" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>90000</v>
       </c>
       <c r="O36" s="160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1908900000</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P36" s="304"/>
+    </row>
+    <row r="37" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="155">
         <v>18</v>
       </c>
@@ -5088,39 +5158,40 @@
       <c r="F37" s="157"/>
       <c r="G37" s="158"/>
       <c r="H37" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I37" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J37" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>92500</v>
       </c>
       <c r="K37" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1962850000</v>
       </c>
       <c r="L37" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M37" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N37" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>92500</v>
       </c>
       <c r="O37" s="160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1962850000</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P37" s="304"/>
+    </row>
+    <row r="38" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="155">
         <v>19</v>
       </c>
@@ -5135,39 +5206,40 @@
       <c r="F38" s="157"/>
       <c r="G38" s="158"/>
       <c r="H38" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I38" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J38" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>69000</v>
       </c>
       <c r="K38" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1471770000</v>
       </c>
       <c r="L38" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M38" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N38" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>69000</v>
       </c>
       <c r="O38" s="160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1471770000</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P38" s="304"/>
+    </row>
+    <row r="39" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="155">
         <v>20</v>
       </c>
@@ -5182,39 +5254,40 @@
       <c r="F39" s="157"/>
       <c r="G39" s="158"/>
       <c r="H39" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I39" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J39" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>70000</v>
       </c>
       <c r="K39" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1498000000</v>
       </c>
       <c r="L39" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M39" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N39" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>70000</v>
       </c>
       <c r="O39" s="160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1498000000</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P39" s="304"/>
+    </row>
+    <row r="40" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="155">
         <v>21</v>
       </c>
@@ -5229,39 +5302,40 @@
       <c r="F40" s="157"/>
       <c r="G40" s="158"/>
       <c r="H40" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I40" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J40" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>19500</v>
       </c>
       <c r="K40" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>417300000</v>
       </c>
       <c r="L40" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M40" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N40" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>19500</v>
       </c>
       <c r="O40" s="160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>417300000</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P40" s="304"/>
+    </row>
+    <row r="41" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="155">
         <v>22</v>
       </c>
@@ -5276,39 +5350,40 @@
       <c r="F41" s="157"/>
       <c r="G41" s="158"/>
       <c r="H41" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I41" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J41" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>43500</v>
       </c>
       <c r="K41" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>930030000</v>
       </c>
       <c r="L41" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M41" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N41" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>43500</v>
       </c>
       <c r="O41" s="160">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>930030000</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P41" s="304"/>
+    </row>
+    <row r="42" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="155">
         <v>23</v>
       </c>
@@ -5323,39 +5398,40 @@
       <c r="F42" s="157"/>
       <c r="G42" s="158"/>
       <c r="H42" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>83000</v>
       </c>
       <c r="I42" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1774540000</v>
       </c>
       <c r="J42" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>83000</v>
       </c>
       <c r="K42" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1774540000</v>
       </c>
       <c r="L42" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M42" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N42" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O42" s="160">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="304"/>
+    </row>
+    <row r="43" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="155">
         <v>24</v>
       </c>
@@ -5370,39 +5446,40 @@
       <c r="F43" s="157"/>
       <c r="G43" s="158"/>
       <c r="H43" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>96000</v>
       </c>
       <c r="I43" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2052480000</v>
       </c>
       <c r="J43" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>96000</v>
       </c>
       <c r="K43" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2052480000</v>
       </c>
       <c r="L43" s="159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M43" s="160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N43" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O43" s="160">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="304"/>
+    </row>
+    <row r="44" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="155">
         <v>25</v>
       </c>
@@ -5417,39 +5494,40 @@
       <c r="F44" s="157"/>
       <c r="G44" s="158"/>
       <c r="H44" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>43600</v>
       </c>
       <c r="I44" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>932168000</v>
       </c>
       <c r="J44" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>43600</v>
       </c>
       <c r="K44" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>932168000</v>
       </c>
       <c r="L44" s="159">
-        <f t="shared" ref="L44:L48" si="20">ROUND(MAX(D44+H44-F44-J44,0),2)</f>
+        <f t="shared" ref="L44:L48" si="23">ROUND(MAX(D44+H44-F44-J44,0),2)</f>
         <v>0</v>
       </c>
       <c r="M44" s="160">
-        <f t="shared" ref="M44:M48" si="21">ROUND(MAX(E44+I44-G44-K44,0),2)</f>
+        <f t="shared" ref="M44:M48" si="24">ROUND(MAX(E44+I44-G44-K44,0),2)</f>
         <v>0</v>
       </c>
       <c r="N44" s="159">
-        <f t="shared" ref="N44:N48" si="22">ROUND(MAX(F44+J44-D44-H44,0),2)</f>
+        <f t="shared" ref="N44:N48" si="25">ROUND(MAX(F44+J44-D44-H44,0),2)</f>
         <v>0</v>
       </c>
       <c r="O44" s="160">
-        <f t="shared" ref="O44:O48" si="23">ROUND(MAX(G44+K44-E44-I44,0),2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+        <f t="shared" ref="O44:O48" si="26">ROUND(MAX(G44+K44-E44-I44,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="304"/>
+    </row>
+    <row r="45" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="155">
         <v>26</v>
       </c>
@@ -5464,39 +5542,40 @@
       <c r="F45" s="157"/>
       <c r="G45" s="158"/>
       <c r="H45" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I45" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J45" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>55000</v>
       </c>
       <c r="K45" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1165725000</v>
       </c>
       <c r="L45" s="159">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M45" s="160">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N45" s="159">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>55000</v>
       </c>
       <c r="O45" s="160">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1165725000</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P45" s="304"/>
+    </row>
+    <row r="46" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="155">
         <v>27</v>
       </c>
@@ -5511,39 +5590,40 @@
       <c r="F46" s="157"/>
       <c r="G46" s="158"/>
       <c r="H46" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I46" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J46" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>81000</v>
       </c>
       <c r="K46" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1730970000</v>
       </c>
       <c r="L46" s="159">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M46" s="160">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N46" s="159">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>81000</v>
       </c>
       <c r="O46" s="160">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1730970000</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P46" s="304"/>
+    </row>
+    <row r="47" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A47" s="155">
         <v>28</v>
       </c>
@@ -5558,39 +5638,40 @@
       <c r="F47" s="157"/>
       <c r="G47" s="158"/>
       <c r="H47" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I47" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J47" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>95700</v>
       </c>
       <c r="K47" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2047980000</v>
       </c>
       <c r="L47" s="159">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M47" s="160">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N47" s="159">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>95700</v>
       </c>
       <c r="O47" s="160">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2047980000</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P47" s="304"/>
+    </row>
+    <row r="48" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="155">
         <v>29</v>
       </c>
@@ -5605,39 +5686,40 @@
       <c r="F48" s="157"/>
       <c r="G48" s="158"/>
       <c r="H48" s="157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I48" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J48" s="157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>43600</v>
       </c>
       <c r="K48" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>933040000</v>
       </c>
       <c r="L48" s="159">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M48" s="160">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N48" s="159">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>43600</v>
       </c>
       <c r="O48" s="160">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>933040000</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" s="152" customFormat="1" ht="18" customHeight="1">
+      <c r="P48" s="304"/>
+    </row>
+    <row r="49" spans="1:16" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="155"/>
       <c r="B49" s="162"/>
       <c r="C49" s="219"/>
@@ -5653,69 +5735,66 @@
       <c r="M49" s="160"/>
       <c r="N49" s="159"/>
       <c r="O49" s="160"/>
-    </row>
-    <row r="50" spans="1:15" s="167" customFormat="1" ht="18" customHeight="1">
+      <c r="P49" s="304"/>
+    </row>
+    <row r="50" spans="1:16" s="167" customFormat="1" ht="18" customHeight="1">
       <c r="A50" s="163"/>
       <c r="B50" s="164" t="s">
         <v>121</v>
       </c>
       <c r="C50" s="164"/>
       <c r="D50" s="165">
-        <f>SUM(D20:D49)</f>
+        <f t="shared" ref="D50:O50" si="27">SUM(D20:D49)</f>
         <v>0</v>
       </c>
       <c r="E50" s="166">
-        <f>SUM(E20:E49)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F50" s="165">
-        <f>SUM(F20:F49)</f>
+        <f t="shared" si="27"/>
         <v>471370</v>
       </c>
       <c r="G50" s="166">
-        <f>SUM(G20:G49)</f>
+        <f t="shared" si="27"/>
         <v>9974110500</v>
       </c>
       <c r="H50" s="165">
-        <f>SUM(H20:H49)</f>
+        <f t="shared" si="27"/>
         <v>1299140</v>
       </c>
       <c r="I50" s="166">
-        <f>SUM(I20:I49)</f>
+        <f t="shared" si="27"/>
         <v>27616284200</v>
       </c>
       <c r="J50" s="165">
-        <f>SUM(J20:J49)</f>
+        <f t="shared" si="27"/>
         <v>1734440</v>
       </c>
       <c r="K50" s="166">
-        <f>SUM(K20:K49)</f>
+        <f t="shared" si="27"/>
         <v>36947041400</v>
       </c>
       <c r="L50" s="165">
-        <f>SUM(L20:L49)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M50" s="166">
-        <f>SUM(M20:M49)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N50" s="165">
-        <f>SUM(N20:N49)</f>
+        <f t="shared" si="27"/>
         <v>906670</v>
       </c>
       <c r="O50" s="166">
-        <f>SUM(O20:O49)</f>
+        <f t="shared" si="27"/>
         <v>19304867700</v>
       </c>
+      <c r="P50" s="305"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="L18:M18"/>
@@ -5730,6 +5809,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.65" right="0.15" top="0.36" bottom="0.21" header="0.2" footer="0"/>
@@ -5767,65 +5851,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="175" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="263" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="258" t="s">
+      <c r="B1" s="266" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="260"/>
-      <c r="D1" s="265" t="s">
+      <c r="C1" s="267"/>
+      <c r="D1" s="263" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="265" t="s">
+      <c r="E1" s="263" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="265" t="s">
+      <c r="F1" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="265" t="s">
+      <c r="G1" s="263" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="258" t="s">
+      <c r="H1" s="266" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="301" t="s">
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="267"/>
+      <c r="L1" s="260" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="175" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="266"/>
-      <c r="B2" s="261" t="s">
+      <c r="A2" s="264"/>
+      <c r="B2" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="261" t="s">
+      <c r="C2" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="263" t="s">
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="264"/>
-      <c r="J2" s="263" t="s">
+      <c r="I2" s="272"/>
+      <c r="J2" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="264"/>
-      <c r="L2" s="302"/>
+      <c r="K2" s="272"/>
+      <c r="L2" s="261"/>
     </row>
     <row r="3" spans="1:12" s="175" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="267"/>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
+      <c r="A3" s="265"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="265"/>
       <c r="H3" s="176" t="s">
         <v>104</v>
       </c>
@@ -5838,7 +5922,7 @@
       <c r="K3" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="L3" s="303"/>
+      <c r="L3" s="262"/>
     </row>
     <row r="4" spans="1:12" s="175" customFormat="1">
       <c r="A4" s="177" t="s">
@@ -5907,7 +5991,7 @@
       </c>
       <c r="J5" s="169"/>
       <c r="K5" s="158"/>
-      <c r="L5" s="300" t="str">
+      <c r="L5" s="250" t="str">
         <f>IF(E5&lt;&gt;"",IF(MID(E5,4,4)="1015","Q11","Q4"),"")</f>
         <v>Q11</v>
       </c>
@@ -8113,12 +8197,12 @@
       <c r="G66" s="186"/>
       <c r="H66" s="169"/>
       <c r="I66" s="158">
-        <f t="shared" ref="I6:I67" si="10">G66*H66</f>
+        <f t="shared" ref="I66:I67" si="10">G66*H66</f>
         <v>0</v>
       </c>
       <c r="J66" s="169"/>
       <c r="K66" s="158">
-        <f t="shared" ref="K6:K67" si="11">G66*J66</f>
+        <f t="shared" ref="K66:K67" si="11">G66*J66</f>
         <v>0</v>
       </c>
       <c r="L66" s="194" t="str">
@@ -8165,12 +8249,12 @@
       <c r="G68" s="186"/>
       <c r="H68" s="169"/>
       <c r="I68" s="158">
-        <f t="shared" ref="I67:I70" si="12">G68*H68</f>
+        <f t="shared" ref="I68:I70" si="12">G68*H68</f>
         <v>0</v>
       </c>
       <c r="J68" s="169"/>
       <c r="K68" s="158">
-        <f t="shared" ref="K67:K70" si="13">G68*J68</f>
+        <f t="shared" ref="K68:K70" si="13">G68*J68</f>
         <v>0</v>
       </c>
       <c r="L68" s="194" t="str">
@@ -8263,7 +8347,7 @@
   </sheetPr>
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
@@ -8294,13 +8378,13 @@
       <c r="C1" s="172"/>
       <c r="H1" s="172"/>
       <c r="I1" s="172"/>
-      <c r="J1" s="275" t="s">
+      <c r="J1" s="280" t="s">
         <v>148</v>
       </c>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="275"/>
-      <c r="N1" s="275"/>
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+      <c r="M1" s="280"/>
+      <c r="N1" s="280"/>
     </row>
     <row r="2" spans="1:14" s="173" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="171" t="s">
@@ -8310,13 +8394,13 @@
       <c r="C2" s="215"/>
       <c r="H2" s="174"/>
       <c r="I2" s="174"/>
-      <c r="J2" s="276" t="s">
+      <c r="J2" s="281" t="s">
         <v>149</v>
       </c>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
+      <c r="K2" s="281"/>
+      <c r="L2" s="281"/>
+      <c r="M2" s="281"/>
+      <c r="N2" s="281"/>
     </row>
     <row r="3" spans="1:14" s="173" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="215"/>
@@ -8324,11 +8408,11 @@
       <c r="C3" s="215"/>
       <c r="H3" s="174"/>
       <c r="I3" s="174"/>
-      <c r="J3" s="276"/>
-      <c r="K3" s="276"/>
-      <c r="L3" s="276"/>
-      <c r="M3" s="276"/>
-      <c r="N3" s="276"/>
+      <c r="J3" s="281"/>
+      <c r="K3" s="281"/>
+      <c r="L3" s="281"/>
+      <c r="M3" s="281"/>
+      <c r="N3" s="281"/>
     </row>
     <row r="4" spans="1:14" s="173" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="215"/>
@@ -8343,77 +8427,77 @@
       <c r="N4" s="216"/>
     </row>
     <row r="5" spans="1:14" s="175" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="277" t="s">
+      <c r="A5" s="282" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="278"/>
-      <c r="C5" s="278"/>
-      <c r="D5" s="278"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="278"/>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="278"/>
-      <c r="L5" s="278"/>
-      <c r="M5" s="278"/>
-      <c r="N5" s="278"/>
+      <c r="B5" s="283"/>
+      <c r="C5" s="283"/>
+      <c r="D5" s="283"/>
+      <c r="E5" s="283"/>
+      <c r="F5" s="283"/>
+      <c r="G5" s="283"/>
+      <c r="H5" s="283"/>
+      <c r="I5" s="283"/>
+      <c r="J5" s="283"/>
+      <c r="K5" s="283"/>
+      <c r="L5" s="283"/>
+      <c r="M5" s="283"/>
+      <c r="N5" s="283"/>
     </row>
     <row r="6" spans="1:14" s="175" customFormat="1">
-      <c r="A6" s="269" t="s">
+      <c r="A6" s="274" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="269"/>
-      <c r="C6" s="269"/>
-      <c r="D6" s="269"/>
-      <c r="E6" s="269"/>
-      <c r="F6" s="269"/>
-      <c r="G6" s="269"/>
-      <c r="H6" s="269"/>
-      <c r="I6" s="269"/>
-      <c r="J6" s="269"/>
-      <c r="K6" s="269"/>
-      <c r="L6" s="269"/>
-      <c r="M6" s="269"/>
-      <c r="N6" s="269"/>
+      <c r="B6" s="274"/>
+      <c r="C6" s="274"/>
+      <c r="D6" s="274"/>
+      <c r="E6" s="274"/>
+      <c r="F6" s="274"/>
+      <c r="G6" s="274"/>
+      <c r="H6" s="274"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="274"/>
+      <c r="K6" s="274"/>
+      <c r="L6" s="274"/>
+      <c r="M6" s="274"/>
+      <c r="N6" s="274"/>
     </row>
     <row r="7" spans="1:14" s="175" customFormat="1">
-      <c r="A7" s="269" t="s">
+      <c r="A7" s="274" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="269"/>
-      <c r="C7" s="269"/>
-      <c r="D7" s="269"/>
-      <c r="E7" s="269"/>
-      <c r="F7" s="269"/>
-      <c r="G7" s="269"/>
-      <c r="H7" s="269"/>
-      <c r="I7" s="269"/>
-      <c r="J7" s="269"/>
-      <c r="K7" s="269"/>
-      <c r="L7" s="269"/>
-      <c r="M7" s="269"/>
-      <c r="N7" s="269"/>
+      <c r="B7" s="274"/>
+      <c r="C7" s="274"/>
+      <c r="D7" s="274"/>
+      <c r="E7" s="274"/>
+      <c r="F7" s="274"/>
+      <c r="G7" s="274"/>
+      <c r="H7" s="274"/>
+      <c r="I7" s="274"/>
+      <c r="J7" s="274"/>
+      <c r="K7" s="274"/>
+      <c r="L7" s="274"/>
+      <c r="M7" s="274"/>
+      <c r="N7" s="274"/>
     </row>
     <row r="8" spans="1:14" s="175" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="269" t="str">
+      <c r="A8" s="274" t="str">
         <f>IF(MID($H$9,4,4)="1015","Đối tượng cho vay: NH Eximbank CN Q11","Đối tượng cho vay: NH Eximbank CN Q4")</f>
         <v>Đối tượng cho vay: NH Eximbank CN Q11</v>
       </c>
-      <c r="B8" s="269"/>
-      <c r="C8" s="269"/>
-      <c r="D8" s="269"/>
-      <c r="E8" s="269"/>
-      <c r="F8" s="269"/>
-      <c r="G8" s="269"/>
-      <c r="H8" s="269"/>
-      <c r="I8" s="269"/>
-      <c r="J8" s="269"/>
-      <c r="K8" s="269"/>
-      <c r="L8" s="269"/>
-      <c r="M8" s="269"/>
-      <c r="N8" s="269"/>
+      <c r="B8" s="274"/>
+      <c r="C8" s="274"/>
+      <c r="D8" s="274"/>
+      <c r="E8" s="274"/>
+      <c r="F8" s="274"/>
+      <c r="G8" s="274"/>
+      <c r="H8" s="274"/>
+      <c r="I8" s="274"/>
+      <c r="J8" s="274"/>
+      <c r="K8" s="274"/>
+      <c r="L8" s="274"/>
+      <c r="M8" s="274"/>
+      <c r="N8" s="274"/>
     </row>
     <row r="9" spans="1:14" s="175" customFormat="1">
       <c r="A9" s="214"/>
@@ -8425,10 +8509,10 @@
       <c r="G9" s="228" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="268" t="s">
+      <c r="H9" s="275" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="268"/>
+      <c r="I9" s="275"/>
       <c r="J9" s="229" t="str">
         <f>"ngày "&amp; TEXT(VLOOKUP($H$9,'311-341'!$B$5:$C$9,2,0),"dd/MM/yy")</f>
         <v>ngày 22/01/10</v>
@@ -8439,102 +8523,102 @@
       <c r="N9" s="214"/>
     </row>
     <row r="10" spans="1:14" s="175" customFormat="1">
-      <c r="A10" s="269" t="s">
+      <c r="A10" s="274" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="269"/>
-      <c r="C10" s="269"/>
-      <c r="D10" s="269"/>
-      <c r="E10" s="269"/>
-      <c r="F10" s="269"/>
-      <c r="G10" s="269"/>
-      <c r="H10" s="269"/>
-      <c r="I10" s="269"/>
-      <c r="J10" s="269"/>
-      <c r="K10" s="269"/>
-      <c r="L10" s="269"/>
-      <c r="M10" s="269"/>
-      <c r="N10" s="269"/>
+      <c r="B10" s="274"/>
+      <c r="C10" s="274"/>
+      <c r="D10" s="274"/>
+      <c r="E10" s="274"/>
+      <c r="F10" s="274"/>
+      <c r="G10" s="274"/>
+      <c r="H10" s="274"/>
+      <c r="I10" s="274"/>
+      <c r="J10" s="274"/>
+      <c r="K10" s="274"/>
+      <c r="L10" s="274"/>
+      <c r="M10" s="274"/>
+      <c r="N10" s="274"/>
     </row>
     <row r="11" spans="1:14" s="175" customFormat="1">
-      <c r="C11" s="270"/>
-      <c r="D11" s="270"/>
-      <c r="E11" s="270"/>
-      <c r="F11" s="270"/>
-      <c r="G11" s="270"/>
-      <c r="H11" s="270"/>
-      <c r="I11" s="270"/>
-      <c r="J11" s="270"/>
-      <c r="K11" s="270"/>
-      <c r="L11" s="270"/>
-      <c r="M11" s="270"/>
-      <c r="N11" s="270"/>
+      <c r="C11" s="276"/>
+      <c r="D11" s="276"/>
+      <c r="E11" s="276"/>
+      <c r="F11" s="276"/>
+      <c r="G11" s="276"/>
+      <c r="H11" s="276"/>
+      <c r="I11" s="276"/>
+      <c r="J11" s="276"/>
+      <c r="K11" s="276"/>
+      <c r="L11" s="276"/>
+      <c r="M11" s="276"/>
+      <c r="N11" s="276"/>
     </row>
     <row r="12" spans="1:14" s="175" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="265" t="s">
+      <c r="A12" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="258" t="s">
+      <c r="B12" s="266" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="260"/>
-      <c r="D12" s="265" t="s">
+      <c r="C12" s="267"/>
+      <c r="D12" s="263" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="265" t="s">
+      <c r="E12" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="265" t="s">
+      <c r="F12" s="263" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="258" t="s">
+      <c r="G12" s="266" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="273"/>
-      <c r="I12" s="273"/>
-      <c r="J12" s="274"/>
-      <c r="K12" s="258" t="s">
+      <c r="H12" s="279"/>
+      <c r="I12" s="279"/>
+      <c r="J12" s="273"/>
+      <c r="K12" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="273"/>
-      <c r="M12" s="273"/>
-      <c r="N12" s="274"/>
+      <c r="L12" s="279"/>
+      <c r="M12" s="279"/>
+      <c r="N12" s="273"/>
     </row>
     <row r="13" spans="1:14" s="175" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="266"/>
-      <c r="B13" s="261" t="s">
+      <c r="A13" s="264"/>
+      <c r="B13" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="261" t="s">
+      <c r="C13" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="266"/>
-      <c r="E13" s="266"/>
-      <c r="F13" s="271"/>
-      <c r="G13" s="263" t="s">
+      <c r="D13" s="264"/>
+      <c r="E13" s="264"/>
+      <c r="F13" s="277"/>
+      <c r="G13" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="274"/>
-      <c r="I13" s="263" t="s">
+      <c r="H13" s="273"/>
+      <c r="I13" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="274"/>
-      <c r="K13" s="263" t="s">
+      <c r="J13" s="273"/>
+      <c r="K13" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="274"/>
-      <c r="M13" s="263" t="s">
+      <c r="L13" s="273"/>
+      <c r="M13" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="274"/>
+      <c r="N13" s="273"/>
     </row>
     <row r="14" spans="1:14" s="175" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A14" s="267"/>
-      <c r="B14" s="262"/>
-      <c r="C14" s="262"/>
-      <c r="D14" s="267"/>
-      <c r="E14" s="267"/>
-      <c r="F14" s="272"/>
+      <c r="A14" s="265"/>
+      <c r="B14" s="270"/>
+      <c r="C14" s="270"/>
+      <c r="D14" s="265"/>
+      <c r="E14" s="265"/>
+      <c r="F14" s="278"/>
       <c r="G14" s="176" t="s">
         <v>104</v>
       </c>
@@ -8973,13 +9057,13 @@
       <c r="C34" s="172"/>
       <c r="H34" s="172"/>
       <c r="I34" s="172"/>
-      <c r="J34" s="275" t="s">
+      <c r="J34" s="280" t="s">
         <v>148</v>
       </c>
-      <c r="K34" s="275"/>
-      <c r="L34" s="275"/>
-      <c r="M34" s="275"/>
-      <c r="N34" s="275"/>
+      <c r="K34" s="280"/>
+      <c r="L34" s="280"/>
+      <c r="M34" s="280"/>
+      <c r="N34" s="280"/>
     </row>
     <row r="35" spans="1:14" s="173" customFormat="1" ht="16.5" customHeight="1">
       <c r="A35" s="171" t="s">
@@ -8989,13 +9073,13 @@
       <c r="C35" s="247"/>
       <c r="H35" s="174"/>
       <c r="I35" s="174"/>
-      <c r="J35" s="276" t="s">
+      <c r="J35" s="281" t="s">
         <v>149</v>
       </c>
-      <c r="K35" s="276"/>
-      <c r="L35" s="276"/>
-      <c r="M35" s="276"/>
-      <c r="N35" s="276"/>
+      <c r="K35" s="281"/>
+      <c r="L35" s="281"/>
+      <c r="M35" s="281"/>
+      <c r="N35" s="281"/>
     </row>
     <row r="36" spans="1:14" s="173" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="247"/>
@@ -9003,11 +9087,11 @@
       <c r="C36" s="247"/>
       <c r="H36" s="174"/>
       <c r="I36" s="174"/>
-      <c r="J36" s="276"/>
-      <c r="K36" s="276"/>
-      <c r="L36" s="276"/>
-      <c r="M36" s="276"/>
-      <c r="N36" s="276"/>
+      <c r="J36" s="281"/>
+      <c r="K36" s="281"/>
+      <c r="L36" s="281"/>
+      <c r="M36" s="281"/>
+      <c r="N36" s="281"/>
     </row>
     <row r="37" spans="1:14" s="173" customFormat="1" ht="16.5" customHeight="1">
       <c r="A37" s="247"/>
@@ -9022,77 +9106,77 @@
       <c r="N37" s="248"/>
     </row>
     <row r="38" spans="1:14" s="175" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A38" s="277" t="s">
+      <c r="A38" s="282" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="278"/>
-      <c r="C38" s="278"/>
-      <c r="D38" s="278"/>
-      <c r="E38" s="278"/>
-      <c r="F38" s="278"/>
-      <c r="G38" s="278"/>
-      <c r="H38" s="278"/>
-      <c r="I38" s="278"/>
-      <c r="J38" s="278"/>
-      <c r="K38" s="278"/>
-      <c r="L38" s="278"/>
-      <c r="M38" s="278"/>
-      <c r="N38" s="278"/>
+      <c r="B38" s="283"/>
+      <c r="C38" s="283"/>
+      <c r="D38" s="283"/>
+      <c r="E38" s="283"/>
+      <c r="F38" s="283"/>
+      <c r="G38" s="283"/>
+      <c r="H38" s="283"/>
+      <c r="I38" s="283"/>
+      <c r="J38" s="283"/>
+      <c r="K38" s="283"/>
+      <c r="L38" s="283"/>
+      <c r="M38" s="283"/>
+      <c r="N38" s="283"/>
     </row>
     <row r="39" spans="1:14" s="175" customFormat="1">
-      <c r="A39" s="269" t="s">
+      <c r="A39" s="274" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="269"/>
-      <c r="C39" s="269"/>
-      <c r="D39" s="269"/>
-      <c r="E39" s="269"/>
-      <c r="F39" s="269"/>
-      <c r="G39" s="269"/>
-      <c r="H39" s="269"/>
-      <c r="I39" s="269"/>
-      <c r="J39" s="269"/>
-      <c r="K39" s="269"/>
-      <c r="L39" s="269"/>
-      <c r="M39" s="269"/>
-      <c r="N39" s="269"/>
+      <c r="B39" s="274"/>
+      <c r="C39" s="274"/>
+      <c r="D39" s="274"/>
+      <c r="E39" s="274"/>
+      <c r="F39" s="274"/>
+      <c r="G39" s="274"/>
+      <c r="H39" s="274"/>
+      <c r="I39" s="274"/>
+      <c r="J39" s="274"/>
+      <c r="K39" s="274"/>
+      <c r="L39" s="274"/>
+      <c r="M39" s="274"/>
+      <c r="N39" s="274"/>
     </row>
     <row r="40" spans="1:14" s="175" customFormat="1">
-      <c r="A40" s="269" t="s">
+      <c r="A40" s="274" t="s">
         <v>390</v>
       </c>
-      <c r="B40" s="269"/>
-      <c r="C40" s="269"/>
-      <c r="D40" s="269"/>
-      <c r="E40" s="269"/>
-      <c r="F40" s="269"/>
-      <c r="G40" s="269"/>
-      <c r="H40" s="269"/>
-      <c r="I40" s="269"/>
-      <c r="J40" s="269"/>
-      <c r="K40" s="269"/>
-      <c r="L40" s="269"/>
-      <c r="M40" s="269"/>
-      <c r="N40" s="269"/>
+      <c r="B40" s="274"/>
+      <c r="C40" s="274"/>
+      <c r="D40" s="274"/>
+      <c r="E40" s="274"/>
+      <c r="F40" s="274"/>
+      <c r="G40" s="274"/>
+      <c r="H40" s="274"/>
+      <c r="I40" s="274"/>
+      <c r="J40" s="274"/>
+      <c r="K40" s="274"/>
+      <c r="L40" s="274"/>
+      <c r="M40" s="274"/>
+      <c r="N40" s="274"/>
     </row>
     <row r="41" spans="1:14" s="175" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="269" t="str">
+      <c r="A41" s="274" t="str">
         <f>IF(MID($H$9,4,4)="1015","Đối tượng cho vay: NH Eximbank CN Q11","Đối tượng cho vay: NH Eximbank CN Q4")</f>
         <v>Đối tượng cho vay: NH Eximbank CN Q11</v>
       </c>
-      <c r="B41" s="269"/>
-      <c r="C41" s="269"/>
-      <c r="D41" s="269"/>
-      <c r="E41" s="269"/>
-      <c r="F41" s="269"/>
-      <c r="G41" s="269"/>
-      <c r="H41" s="269"/>
-      <c r="I41" s="269"/>
-      <c r="J41" s="269"/>
-      <c r="K41" s="269"/>
-      <c r="L41" s="269"/>
-      <c r="M41" s="269"/>
-      <c r="N41" s="269"/>
+      <c r="B41" s="274"/>
+      <c r="C41" s="274"/>
+      <c r="D41" s="274"/>
+      <c r="E41" s="274"/>
+      <c r="F41" s="274"/>
+      <c r="G41" s="274"/>
+      <c r="H41" s="274"/>
+      <c r="I41" s="274"/>
+      <c r="J41" s="274"/>
+      <c r="K41" s="274"/>
+      <c r="L41" s="274"/>
+      <c r="M41" s="274"/>
+      <c r="N41" s="274"/>
     </row>
     <row r="42" spans="1:14" s="175" customFormat="1">
       <c r="A42" s="246"/>
@@ -9104,10 +9188,10 @@
       <c r="G42" s="228" t="s">
         <v>147</v>
       </c>
-      <c r="H42" s="268" t="s">
+      <c r="H42" s="275" t="s">
         <v>391</v>
       </c>
-      <c r="I42" s="268"/>
+      <c r="I42" s="275"/>
       <c r="J42" s="229" t="str">
         <f>"ngày "&amp; TEXT(VLOOKUP($H$42,DSKU1,2,0),"dd/MM/yy")</f>
         <v>ngày 09/07/13</v>
@@ -9118,102 +9202,102 @@
       <c r="N42" s="246"/>
     </row>
     <row r="43" spans="1:14" s="175" customFormat="1">
-      <c r="A43" s="269" t="s">
+      <c r="A43" s="274" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="269"/>
-      <c r="C43" s="269"/>
-      <c r="D43" s="269"/>
-      <c r="E43" s="269"/>
-      <c r="F43" s="269"/>
-      <c r="G43" s="269"/>
-      <c r="H43" s="269"/>
-      <c r="I43" s="269"/>
-      <c r="J43" s="269"/>
-      <c r="K43" s="269"/>
-      <c r="L43" s="269"/>
-      <c r="M43" s="269"/>
-      <c r="N43" s="269"/>
+      <c r="B43" s="274"/>
+      <c r="C43" s="274"/>
+      <c r="D43" s="274"/>
+      <c r="E43" s="274"/>
+      <c r="F43" s="274"/>
+      <c r="G43" s="274"/>
+      <c r="H43" s="274"/>
+      <c r="I43" s="274"/>
+      <c r="J43" s="274"/>
+      <c r="K43" s="274"/>
+      <c r="L43" s="274"/>
+      <c r="M43" s="274"/>
+      <c r="N43" s="274"/>
     </row>
     <row r="44" spans="1:14" s="175" customFormat="1">
-      <c r="C44" s="270"/>
-      <c r="D44" s="270"/>
-      <c r="E44" s="270"/>
-      <c r="F44" s="270"/>
-      <c r="G44" s="270"/>
-      <c r="H44" s="270"/>
-      <c r="I44" s="270"/>
-      <c r="J44" s="270"/>
-      <c r="K44" s="270"/>
-      <c r="L44" s="270"/>
-      <c r="M44" s="270"/>
-      <c r="N44" s="270"/>
+      <c r="C44" s="276"/>
+      <c r="D44" s="276"/>
+      <c r="E44" s="276"/>
+      <c r="F44" s="276"/>
+      <c r="G44" s="276"/>
+      <c r="H44" s="276"/>
+      <c r="I44" s="276"/>
+      <c r="J44" s="276"/>
+      <c r="K44" s="276"/>
+      <c r="L44" s="276"/>
+      <c r="M44" s="276"/>
+      <c r="N44" s="276"/>
     </row>
     <row r="45" spans="1:14" s="175" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="265" t="s">
+      <c r="A45" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="258" t="s">
+      <c r="B45" s="266" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="260"/>
-      <c r="D45" s="265" t="s">
+      <c r="C45" s="267"/>
+      <c r="D45" s="263" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="265" t="s">
+      <c r="E45" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="265" t="s">
+      <c r="F45" s="263" t="s">
         <v>125</v>
       </c>
-      <c r="G45" s="258" t="s">
+      <c r="G45" s="266" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="273"/>
-      <c r="I45" s="273"/>
-      <c r="J45" s="274"/>
-      <c r="K45" s="258" t="s">
+      <c r="H45" s="279"/>
+      <c r="I45" s="279"/>
+      <c r="J45" s="273"/>
+      <c r="K45" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="273"/>
-      <c r="M45" s="273"/>
-      <c r="N45" s="274"/>
+      <c r="L45" s="279"/>
+      <c r="M45" s="279"/>
+      <c r="N45" s="273"/>
     </row>
     <row r="46" spans="1:14" s="175" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A46" s="266"/>
-      <c r="B46" s="261" t="s">
+      <c r="A46" s="264"/>
+      <c r="B46" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="261" t="s">
+      <c r="C46" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="266"/>
-      <c r="E46" s="266"/>
-      <c r="F46" s="271"/>
-      <c r="G46" s="263" t="s">
+      <c r="D46" s="264"/>
+      <c r="E46" s="264"/>
+      <c r="F46" s="277"/>
+      <c r="G46" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="274"/>
-      <c r="I46" s="263" t="s">
+      <c r="H46" s="273"/>
+      <c r="I46" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="274"/>
-      <c r="K46" s="263" t="s">
+      <c r="J46" s="273"/>
+      <c r="K46" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="L46" s="274"/>
-      <c r="M46" s="263" t="s">
+      <c r="L46" s="273"/>
+      <c r="M46" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="N46" s="274"/>
+      <c r="N46" s="273"/>
     </row>
     <row r="47" spans="1:14" s="175" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A47" s="267"/>
-      <c r="B47" s="262"/>
-      <c r="C47" s="262"/>
-      <c r="D47" s="267"/>
-      <c r="E47" s="267"/>
-      <c r="F47" s="272"/>
+      <c r="A47" s="265"/>
+      <c r="B47" s="270"/>
+      <c r="C47" s="270"/>
+      <c r="D47" s="265"/>
+      <c r="E47" s="265"/>
+      <c r="F47" s="278"/>
       <c r="G47" s="176" t="s">
         <v>104</v>
       </c>
@@ -9639,6 +9723,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="C11:N11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="J2:N3"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="J35:N36"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A40:N40"/>
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="A41:N41"/>
     <mergeCell ref="H42:I42"/>
@@ -9655,34 +9767,6 @@
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="J35:N36"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A40:N40"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="J2:N3"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="C11:N11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:I9">
@@ -9739,11 +9823,11 @@
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="289" t="s">
+      <c r="G2" s="294" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
       <c r="O2" s="15" t="s">
         <v>0</v>
       </c>
@@ -9753,11 +9837,11 @@
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="290" t="s">
+      <c r="G3" s="295" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
+      <c r="H3" s="295"/>
+      <c r="I3" s="295"/>
       <c r="O3" s="15" t="s">
         <v>1</v>
       </c>
@@ -9765,24 +9849,24 @@
     </row>
     <row r="4" spans="1:21">
       <c r="F4" s="3"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="290"/>
+      <c r="G4" s="295"/>
+      <c r="H4" s="295"/>
+      <c r="I4" s="295"/>
       <c r="S4" s="3"/>
       <c r="T4" s="28"/>
     </row>
     <row r="5" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A5" s="293" t="s">
+      <c r="A5" s="297" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="293"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
-      <c r="I5" s="293"/>
+      <c r="B5" s="297"/>
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="297"/>
+      <c r="F5" s="297"/>
+      <c r="G5" s="297"/>
+      <c r="H5" s="297"/>
+      <c r="I5" s="297"/>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
       <c r="R5" s="28"/>
@@ -9790,17 +9874,17 @@
       <c r="T5" s="28"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="291" t="s">
+      <c r="A6" s="284" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="291"/>
-      <c r="C6" s="291"/>
-      <c r="D6" s="291"/>
-      <c r="E6" s="291"/>
-      <c r="F6" s="291"/>
-      <c r="G6" s="291"/>
-      <c r="H6" s="291"/>
-      <c r="I6" s="291"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="284"/>
+      <c r="H6" s="284"/>
+      <c r="I6" s="284"/>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
       <c r="R6" s="28"/>
@@ -9808,17 +9892,17 @@
       <c r="T6" s="28"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="294" t="s">
+      <c r="A7" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="294"/>
-      <c r="C7" s="294"/>
-      <c r="D7" s="294"/>
-      <c r="E7" s="294"/>
-      <c r="F7" s="294"/>
-      <c r="G7" s="294"/>
-      <c r="H7" s="294"/>
-      <c r="I7" s="294"/>
+      <c r="B7" s="298"/>
+      <c r="C7" s="298"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="298"/>
+      <c r="I7" s="298"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
       <c r="R7" s="28"/>
@@ -9826,17 +9910,17 @@
       <c r="T7" s="28"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="291" t="s">
+      <c r="A8" s="284" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="291"/>
-      <c r="C8" s="291"/>
-      <c r="D8" s="291"/>
-      <c r="E8" s="291"/>
-      <c r="F8" s="291"/>
-      <c r="G8" s="291"/>
-      <c r="H8" s="291"/>
-      <c r="I8" s="291"/>
+      <c r="B8" s="284"/>
+      <c r="C8" s="284"/>
+      <c r="D8" s="284"/>
+      <c r="E8" s="284"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="284"/>
+      <c r="H8" s="284"/>
+      <c r="I8" s="284"/>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
       <c r="R8" s="28"/>
@@ -9844,17 +9928,17 @@
       <c r="T8" s="28"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="291" t="s">
+      <c r="A9" s="284" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="291"/>
-      <c r="C9" s="291"/>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="291"/>
+      <c r="B9" s="284"/>
+      <c r="C9" s="284"/>
+      <c r="D9" s="284"/>
+      <c r="E9" s="284"/>
+      <c r="F9" s="284"/>
+      <c r="G9" s="284"/>
+      <c r="H9" s="284"/>
+      <c r="I9" s="284"/>
       <c r="O9" s="28"/>
       <c r="P9" s="28"/>
       <c r="R9" s="28"/>
@@ -9862,15 +9946,15 @@
       <c r="T9" s="28"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1">
-      <c r="A10" s="295"/>
-      <c r="B10" s="295"/>
-      <c r="C10" s="295"/>
-      <c r="D10" s="295"/>
-      <c r="E10" s="295"/>
-      <c r="F10" s="295"/>
-      <c r="G10" s="295"/>
-      <c r="H10" s="295"/>
-      <c r="I10" s="295"/>
+      <c r="A10" s="299"/>
+      <c r="B10" s="299"/>
+      <c r="C10" s="299"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="299"/>
+      <c r="G10" s="299"/>
+      <c r="H10" s="299"/>
+      <c r="I10" s="299"/>
       <c r="O10" s="28"/>
       <c r="P10" s="28"/>
       <c r="R10" s="28"/>
@@ -9878,95 +9962,95 @@
       <c r="T10" s="28"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A11" s="288" t="s">
+      <c r="A11" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="280" t="s">
+      <c r="B11" s="286" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="281"/>
-      <c r="D11" s="288" t="s">
+      <c r="C11" s="287"/>
+      <c r="D11" s="285" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="288" t="s">
+      <c r="E11" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="280" t="s">
+      <c r="F11" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="281"/>
-      <c r="H11" s="280" t="s">
+      <c r="G11" s="287"/>
+      <c r="H11" s="286" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="292"/>
-      <c r="O11" s="288" t="s">
+      <c r="I11" s="296"/>
+      <c r="O11" s="285" t="s">
         <v>6</v>
       </c>
       <c r="P11" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="288" t="s">
+      <c r="Q11" s="285" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="288" t="s">
+      <c r="R11" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="S11" s="280" t="s">
+      <c r="S11" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="281"/>
+      <c r="T11" s="287"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A12" s="288"/>
-      <c r="B12" s="282" t="s">
+      <c r="A12" s="285"/>
+      <c r="B12" s="288" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="284" t="s">
+      <c r="C12" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="288"/>
-      <c r="E12" s="288"/>
-      <c r="F12" s="284" t="s">
+      <c r="D12" s="285"/>
+      <c r="E12" s="285"/>
+      <c r="F12" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="286" t="s">
+      <c r="G12" s="292" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="284" t="s">
+      <c r="H12" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="284" t="s">
+      <c r="I12" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="288"/>
-      <c r="P12" s="282" t="s">
+      <c r="O12" s="285"/>
+      <c r="P12" s="288" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="288"/>
-      <c r="R12" s="288"/>
-      <c r="S12" s="284" t="s">
+      <c r="Q12" s="285"/>
+      <c r="R12" s="285"/>
+      <c r="S12" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="T12" s="286" t="s">
+      <c r="T12" s="292" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="18" customHeight="1">
-      <c r="A13" s="288"/>
-      <c r="B13" s="283"/>
-      <c r="C13" s="285"/>
-      <c r="D13" s="288"/>
-      <c r="E13" s="288"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="O13" s="288"/>
-      <c r="P13" s="283"/>
-      <c r="Q13" s="288"/>
-      <c r="R13" s="288"/>
-      <c r="S13" s="285"/>
-      <c r="T13" s="287"/>
+      <c r="A13" s="285"/>
+      <c r="B13" s="289"/>
+      <c r="C13" s="291"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="291"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="291"/>
+      <c r="I13" s="291"/>
+      <c r="O13" s="285"/>
+      <c r="P13" s="289"/>
+      <c r="Q13" s="285"/>
+      <c r="R13" s="285"/>
+      <c r="S13" s="291"/>
+      <c r="T13" s="293"/>
     </row>
     <row r="14" spans="1:21" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="29" t="s">
@@ -19382,13 +19466,13 @@
       <c r="B226" s="27"/>
       <c r="C226" s="27"/>
       <c r="D226" s="28"/>
-      <c r="E226" s="291" t="s">
+      <c r="E226" s="284" t="s">
         <v>199</v>
       </c>
-      <c r="F226" s="291"/>
-      <c r="G226" s="291"/>
-      <c r="H226" s="291"/>
-      <c r="I226" s="291"/>
+      <c r="F226" s="284"/>
+      <c r="G226" s="284"/>
+      <c r="H226" s="284"/>
+      <c r="I226" s="284"/>
       <c r="J226" s="59"/>
       <c r="K226" s="115"/>
       <c r="L226" s="59"/>
@@ -19403,58 +19487,58 @@
       <c r="U226" s="144"/>
     </row>
     <row r="227" spans="1:21" s="1" customFormat="1">
-      <c r="A227" s="291" t="s">
+      <c r="A227" s="284" t="s">
         <v>25</v>
       </c>
-      <c r="B227" s="291"/>
-      <c r="C227" s="291"/>
-      <c r="D227" s="291"/>
-      <c r="E227" s="291" t="s">
+      <c r="B227" s="284"/>
+      <c r="C227" s="284"/>
+      <c r="D227" s="284"/>
+      <c r="E227" s="284" t="s">
         <v>26</v>
       </c>
-      <c r="F227" s="291"/>
-      <c r="G227" s="291"/>
-      <c r="H227" s="291"/>
-      <c r="I227" s="291"/>
+      <c r="F227" s="284"/>
+      <c r="G227" s="284"/>
+      <c r="H227" s="284"/>
+      <c r="I227" s="284"/>
       <c r="J227" s="59"/>
       <c r="K227" s="138"/>
       <c r="L227" s="60"/>
       <c r="M227" s="58"/>
       <c r="N227" s="58"/>
-      <c r="O227" s="279" t="s">
+      <c r="O227" s="300" t="s">
         <v>25</v>
       </c>
-      <c r="P227" s="279"/>
-      <c r="Q227" s="279"/>
+      <c r="P227" s="300"/>
+      <c r="Q227" s="300"/>
       <c r="R227" s="58"/>
       <c r="S227" s="58"/>
       <c r="T227" s="58"/>
       <c r="U227" s="144"/>
     </row>
     <row r="228" spans="1:21" s="1" customFormat="1">
-      <c r="A228" s="291" t="s">
+      <c r="A228" s="284" t="s">
         <v>27</v>
       </c>
-      <c r="B228" s="291"/>
-      <c r="C228" s="291"/>
-      <c r="D228" s="291"/>
-      <c r="E228" s="291" t="s">
+      <c r="B228" s="284"/>
+      <c r="C228" s="284"/>
+      <c r="D228" s="284"/>
+      <c r="E228" s="284" t="s">
         <v>27</v>
       </c>
-      <c r="F228" s="291"/>
-      <c r="G228" s="291"/>
-      <c r="H228" s="291"/>
-      <c r="I228" s="291"/>
+      <c r="F228" s="284"/>
+      <c r="G228" s="284"/>
+      <c r="H228" s="284"/>
+      <c r="I228" s="284"/>
       <c r="J228" s="59"/>
       <c r="K228" s="137"/>
       <c r="L228" s="59"/>
       <c r="M228" s="58"/>
       <c r="N228" s="58"/>
-      <c r="O228" s="279" t="s">
+      <c r="O228" s="300" t="s">
         <v>27</v>
       </c>
-      <c r="P228" s="279"/>
-      <c r="Q228" s="279"/>
+      <c r="P228" s="300"/>
+      <c r="Q228" s="300"/>
       <c r="R228" s="58"/>
       <c r="S228" s="58"/>
       <c r="T228" s="58"/>
@@ -20191,15 +20275,15 @@
   </sheetData>
   <autoFilter ref="A14:N222"/>
   <mergeCells count="34">
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E228:I228"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="O227:Q227"/>
+    <mergeCell ref="O228:Q228"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I4"/>
     <mergeCell ref="A227:D227"/>
@@ -20216,15 +20300,15 @@
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="O227:Q227"/>
-    <mergeCell ref="O228:Q228"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E228:I228"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="F35 S53">
@@ -20304,11 +20388,11 @@
       <c r="D2" s="28"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
-      <c r="G2" s="289" t="s">
+      <c r="G2" s="294" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
       <c r="P2" s="28"/>
@@ -20325,11 +20409,11 @@
       <c r="D3" s="28"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
-      <c r="G3" s="290" t="s">
+      <c r="G3" s="295" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
+      <c r="H3" s="295"/>
+      <c r="I3" s="295"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
       <c r="P3" s="28"/>
@@ -20344,9 +20428,9 @@
       <c r="D4" s="28"/>
       <c r="E4" s="27"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="290"/>
+      <c r="G4" s="295"/>
+      <c r="H4" s="295"/>
+      <c r="I4" s="295"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="28"/>
@@ -20355,17 +20439,17 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A5" s="293" t="s">
+      <c r="A5" s="297" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="293"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
-      <c r="I5" s="293"/>
+      <c r="B5" s="297"/>
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="297"/>
+      <c r="F5" s="297"/>
+      <c r="G5" s="297"/>
+      <c r="H5" s="297"/>
+      <c r="I5" s="297"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="1"/>
@@ -20373,17 +20457,17 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="291" t="s">
+      <c r="A6" s="284" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="291"/>
-      <c r="C6" s="291"/>
-      <c r="D6" s="291"/>
-      <c r="E6" s="291"/>
-      <c r="F6" s="291"/>
-      <c r="G6" s="291"/>
-      <c r="H6" s="291"/>
-      <c r="I6" s="291"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="284"/>
+      <c r="H6" s="284"/>
+      <c r="I6" s="284"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="Q6" s="1"/>
@@ -20391,17 +20475,17 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="294" t="s">
+      <c r="A7" s="298" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="291"/>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="291"/>
+      <c r="B7" s="284"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="284"/>
+      <c r="H7" s="284"/>
+      <c r="I7" s="284"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="Q7" s="1"/>
@@ -20409,19 +20493,19 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="291" t="s">
+      <c r="A8" s="284" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="291" t="s">
+      <c r="B8" s="284" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="291"/>
-      <c r="D8" s="291"/>
-      <c r="E8" s="291"/>
-      <c r="F8" s="291"/>
-      <c r="G8" s="291"/>
-      <c r="H8" s="291"/>
-      <c r="I8" s="291"/>
+      <c r="C8" s="284"/>
+      <c r="D8" s="284"/>
+      <c r="E8" s="284"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="284"/>
+      <c r="H8" s="284"/>
+      <c r="I8" s="284"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="Q8" s="1"/>
@@ -20429,17 +20513,17 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="291" t="s">
+      <c r="A9" s="284" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="294"/>
-      <c r="C9" s="294"/>
-      <c r="D9" s="294"/>
-      <c r="E9" s="294"/>
-      <c r="F9" s="294"/>
-      <c r="G9" s="294"/>
-      <c r="H9" s="294"/>
-      <c r="I9" s="294"/>
+      <c r="B9" s="298"/>
+      <c r="C9" s="298"/>
+      <c r="D9" s="298"/>
+      <c r="E9" s="298"/>
+      <c r="F9" s="298"/>
+      <c r="G9" s="298"/>
+      <c r="H9" s="298"/>
+      <c r="I9" s="298"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="Q9" s="1"/>
@@ -20449,13 +20533,13 @@
     <row r="10" spans="1:20" hidden="1">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="296"/>
-      <c r="D10" s="296"/>
-      <c r="E10" s="296"/>
-      <c r="F10" s="296"/>
-      <c r="G10" s="296"/>
-      <c r="H10" s="296"/>
-      <c r="I10" s="296"/>
+      <c r="C10" s="301"/>
+      <c r="D10" s="301"/>
+      <c r="E10" s="301"/>
+      <c r="F10" s="301"/>
+      <c r="G10" s="301"/>
+      <c r="H10" s="301"/>
+      <c r="I10" s="301"/>
       <c r="N10" s="27"/>
       <c r="O10" s="1"/>
       <c r="Q10" s="1"/>
@@ -20463,95 +20547,95 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="288" t="s">
+      <c r="A11" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="280" t="s">
+      <c r="B11" s="286" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="281"/>
-      <c r="D11" s="288" t="s">
+      <c r="C11" s="287"/>
+      <c r="D11" s="285" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="288" t="s">
+      <c r="E11" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="280" t="s">
+      <c r="F11" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="281"/>
-      <c r="H11" s="280" t="s">
+      <c r="G11" s="287"/>
+      <c r="H11" s="286" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="292"/>
-      <c r="N11" s="280" t="s">
+      <c r="I11" s="296"/>
+      <c r="N11" s="286" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="281"/>
-      <c r="P11" s="288" t="s">
+      <c r="O11" s="287"/>
+      <c r="P11" s="285" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="288" t="s">
+      <c r="Q11" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="280" t="s">
+      <c r="R11" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="281"/>
+      <c r="S11" s="287"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A12" s="288"/>
-      <c r="B12" s="284" t="s">
+      <c r="A12" s="285"/>
+      <c r="B12" s="290" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="284" t="s">
+      <c r="C12" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="288"/>
-      <c r="E12" s="288"/>
-      <c r="F12" s="284" t="s">
+      <c r="D12" s="285"/>
+      <c r="E12" s="285"/>
+      <c r="F12" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="286" t="s">
+      <c r="G12" s="292" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="284" t="s">
+      <c r="H12" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="284" t="s">
+      <c r="I12" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="284" t="s">
+      <c r="N12" s="290" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="284" t="s">
+      <c r="O12" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="288"/>
-      <c r="Q12" s="288"/>
-      <c r="R12" s="284" t="s">
+      <c r="P12" s="285"/>
+      <c r="Q12" s="285"/>
+      <c r="R12" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="286" t="s">
+      <c r="S12" s="292" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A13" s="288"/>
-      <c r="B13" s="285"/>
-      <c r="C13" s="285"/>
-      <c r="D13" s="288"/>
-      <c r="E13" s="288"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="N13" s="285"/>
-      <c r="O13" s="285"/>
-      <c r="P13" s="288"/>
-      <c r="Q13" s="288"/>
-      <c r="R13" s="285"/>
-      <c r="S13" s="287"/>
+      <c r="A13" s="285"/>
+      <c r="B13" s="291"/>
+      <c r="C13" s="291"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="291"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="291"/>
+      <c r="I13" s="291"/>
+      <c r="N13" s="291"/>
+      <c r="O13" s="291"/>
+      <c r="P13" s="285"/>
+      <c r="Q13" s="285"/>
+      <c r="R13" s="291"/>
+      <c r="S13" s="293"/>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="9.75" customHeight="1">
       <c r="A14" s="29" t="s">
@@ -27132,13 +27216,13 @@
       <c r="B158" s="27"/>
       <c r="C158" s="27"/>
       <c r="D158" s="28"/>
-      <c r="E158" s="291" t="s">
+      <c r="E158" s="284" t="s">
         <v>139</v>
       </c>
-      <c r="F158" s="291"/>
-      <c r="G158" s="291"/>
-      <c r="H158" s="291"/>
-      <c r="I158" s="291"/>
+      <c r="F158" s="284"/>
+      <c r="G158" s="284"/>
+      <c r="H158" s="284"/>
+      <c r="I158" s="284"/>
       <c r="J158" s="50"/>
       <c r="L158" s="58"/>
       <c r="M158" s="58"/>
@@ -27150,19 +27234,19 @@
       <c r="S158" s="58"/>
     </row>
     <row r="159" spans="1:19">
-      <c r="A159" s="291" t="s">
+      <c r="A159" s="284" t="s">
         <v>25</v>
       </c>
-      <c r="B159" s="291"/>
-      <c r="C159" s="291"/>
-      <c r="D159" s="291"/>
-      <c r="E159" s="291" t="s">
+      <c r="B159" s="284"/>
+      <c r="C159" s="284"/>
+      <c r="D159" s="284"/>
+      <c r="E159" s="284" t="s">
         <v>26</v>
       </c>
-      <c r="F159" s="291"/>
-      <c r="G159" s="291"/>
-      <c r="H159" s="291"/>
-      <c r="I159" s="291"/>
+      <c r="F159" s="284"/>
+      <c r="G159" s="284"/>
+      <c r="H159" s="284"/>
+      <c r="I159" s="284"/>
       <c r="J159" s="50"/>
       <c r="L159" s="58"/>
       <c r="M159" s="58"/>
@@ -27174,19 +27258,19 @@
       <c r="S159" s="58"/>
     </row>
     <row r="160" spans="1:19">
-      <c r="A160" s="291" t="s">
+      <c r="A160" s="284" t="s">
         <v>27</v>
       </c>
-      <c r="B160" s="291"/>
-      <c r="C160" s="291"/>
-      <c r="D160" s="291"/>
-      <c r="E160" s="291" t="s">
+      <c r="B160" s="284"/>
+      <c r="C160" s="284"/>
+      <c r="D160" s="284"/>
+      <c r="E160" s="284" t="s">
         <v>27</v>
       </c>
-      <c r="F160" s="291"/>
-      <c r="G160" s="291"/>
-      <c r="H160" s="291"/>
-      <c r="I160" s="291"/>
+      <c r="F160" s="284"/>
+      <c r="G160" s="284"/>
+      <c r="H160" s="284"/>
+      <c r="I160" s="284"/>
       <c r="J160" s="59"/>
       <c r="K160" s="204"/>
       <c r="L160" s="59"/>
@@ -27336,23 +27420,6 @@
   </sheetData>
   <autoFilter ref="A14:Q151"/>
   <mergeCells count="33">
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="E160:I160"/>
-    <mergeCell ref="E158:I158"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="E159:I159"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I4"/>
     <mergeCell ref="N11:O11"/>
@@ -27369,6 +27436,23 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A11:A13"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="E160:I160"/>
+    <mergeCell ref="E158:I158"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="E159:I159"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.13" top="0.16" bottom="0.39" header="0.16" footer="0.15"/>
@@ -27429,38 +27513,38 @@
       <c r="G2" s="121"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1">
-      <c r="A3" s="297" t="s">
+      <c r="A3" s="302" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="297"/>
+      <c r="B3" s="302"/>
       <c r="D3" s="92">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
-      <c r="A4" s="291" t="str">
+      <c r="A4" s="284" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","Ngày  "&amp;DAY(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),)))</f>
         <v>Ngày  30  tháng  6   năm   2014</v>
       </c>
-      <c r="B4" s="291"/>
+      <c r="B4" s="284"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1">
-      <c r="A5" s="298"/>
+      <c r="A5" s="303"/>
       <c r="B5" s="66" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","Số:   "&amp;OFFSET('141-BH'!P$1,SMALL(Dong02,ROWS($1:1)),))</f>
         <v>Số:   TU11</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1">
-      <c r="A6" s="298"/>
+      <c r="A6" s="303"/>
       <c r="B6" s="66" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12" customHeight="1">
-      <c r="A7" s="298"/>
+      <c r="A7" s="303"/>
       <c r="B7" s="66" t="s">
         <v>78</v>
       </c>
@@ -28254,38 +28338,38 @@
       <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A3" s="297" t="s">
+      <c r="A3" s="302" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="297"/>
+      <c r="B3" s="302"/>
       <c r="D3" s="92">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A4" s="291" t="str">
+      <c r="A4" s="284" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"","Ngày  "&amp;DAY(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),)))</f>
         <v>Ngày  30  tháng  6   năm   2014</v>
       </c>
-      <c r="B4" s="291"/>
+      <c r="B4" s="284"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A5" s="298"/>
+      <c r="A5" s="303"/>
       <c r="B5" s="66" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"","Số:   "&amp;OFFSET('141-TT'!N$1,SMALL(Dong04,ROWS($1:1)),))</f>
         <v>Số:   TU12</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A6" s="298"/>
+      <c r="A6" s="303"/>
       <c r="B6" s="66" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A7" s="298"/>
+      <c r="A7" s="303"/>
       <c r="B7" s="66" t="s">
         <v>78</v>
       </c>
